--- a/chapter7/tmp/kmeansresults.xlsx
+++ b/chapter7/tmp/kmeansresults.xlsx
@@ -426,22 +426,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15724</v>
+        <v>15728</v>
       </c>
       <c r="C2">
-        <v>1.160848430065652</v>
+        <v>1.160501378899355</v>
       </c>
       <c r="D2">
-        <v>-0.3774444570456142</v>
+        <v>-0.377423623040548</v>
       </c>
       <c r="E2">
-        <v>-0.0869370138991433</v>
+        <v>-0.08708102685747296</v>
       </c>
       <c r="F2">
-        <v>-0.09482463617292389</v>
+        <v>-0.09504064153736047</v>
       </c>
       <c r="G2">
-        <v>-0.1590000137591817</v>
+        <v>-0.1586571446536481</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -449,22 +449,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>24617</v>
+        <v>5341</v>
       </c>
       <c r="C3">
-        <v>-0.7006492558664393</v>
+        <v>0.4834764735140571</v>
       </c>
       <c r="D3">
-        <v>-0.4152513837233697</v>
+        <v>-0.7994177685165216</v>
       </c>
       <c r="E3">
-        <v>-0.1604996843406045</v>
+        <v>2.482364949809075</v>
       </c>
       <c r="F3">
-        <v>-0.1602429059059489</v>
+        <v>2.423564190428064</v>
       </c>
       <c r="G3">
-        <v>-0.2573608106361451</v>
+        <v>0.3094304181527122</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -472,22 +472,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5341</v>
+        <v>12115</v>
       </c>
       <c r="C4">
-        <v>0.4834764735140571</v>
+        <v>-0.3137843580923071</v>
       </c>
       <c r="D4">
-        <v>-0.7994177685165216</v>
+        <v>1.686905645786047</v>
       </c>
       <c r="E4">
-        <v>2.482364949809075</v>
+        <v>-0.5738318884557193</v>
       </c>
       <c r="F4">
-        <v>2.423564190428064</v>
+        <v>-0.5365839074503087</v>
       </c>
       <c r="G4">
-        <v>0.3094304181527122</v>
+        <v>-0.1730651862550476</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -495,22 +495,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12117</v>
+        <v>24612</v>
       </c>
       <c r="C5">
-        <v>-0.3139078877612311</v>
+        <v>-0.7008499436548613</v>
       </c>
       <c r="D5">
-        <v>1.686793122005665</v>
+        <v>-0.4151896146446902</v>
       </c>
       <c r="E5">
-        <v>-0.5738245656326555</v>
+        <v>-0.1604944222439734</v>
       </c>
       <c r="F5">
-        <v>-0.5365607312244679</v>
+        <v>-0.1601894149145482</v>
       </c>
       <c r="G5">
-        <v>-0.1729672051859296</v>
+        <v>-0.2574666103952074</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -518,22 +518,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>4245</v>
+        <v>4248</v>
       </c>
       <c r="C6">
-        <v>0.04939402027149934</v>
+        <v>0.04852259566882137</v>
       </c>
       <c r="D6">
-        <v>-0.002824039775960747</v>
+        <v>-0.002468735502247559</v>
       </c>
       <c r="E6">
-        <v>-0.232512020457348</v>
+        <v>-0.2323562897666213</v>
       </c>
       <c r="F6">
-        <v>-0.2371068045004366</v>
+        <v>-0.2368884668466778</v>
       </c>
       <c r="G6">
-        <v>2.171169235633996</v>
+        <v>2.171786713871344</v>
       </c>
     </row>
   </sheetData>
